--- a/data/Облік і оподатківання_ВІДОМІСТЬ ДОРУЧЕНЬ - 2020.xlsx
+++ b/data/Облік і оподатківання_ВІДОМІСТЬ ДОРУЧЕНЬ - 2020.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="11640"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="84">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -337,12 +337,18 @@
   <si>
     <t xml:space="preserve">ФЕУ-216; ФЕУ-416 сп </t>
   </si>
+  <si>
+    <t>Помулєва Валентина Миколаївна</t>
+  </si>
+  <si>
+    <t>Лищенко Олена Германівна</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +468,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -505,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -584,6 +597,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -591,6 +607,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -849,24 +870,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C1:C65536"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="36.140625" style="3" customWidth="1"/>
@@ -879,7 +900,7 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
@@ -888,7 +909,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75">
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -901,8 +922,8 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1"/>
-    <row r="4" spans="1:13" ht="30">
+    <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
@@ -915,7 +936,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:13" ht="6.75" customHeight="1">
+    <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -926,7 +947,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="25.5">
+    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
@@ -939,7 +960,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:13" ht="8.85" customHeight="1">
+    <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -950,7 +971,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>68</v>
       </c>
@@ -963,7 +984,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:13" ht="11.65" customHeight="1">
+    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -974,7 +995,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75">
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>69</v>
       </c>
@@ -987,7 +1008,7 @@
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75">
+    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="23" t="s">
         <v>70</v>
@@ -1000,7 +1021,7 @@
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75">
+    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1011,7 +1032,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:13" ht="81" customHeight="1">
+    <row r="13" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
@@ -1040,7 +1061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1</v>
       </c>
@@ -1069,7 +1090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="24.75" customHeight="1">
+    <row r="15" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>1</v>
       </c>
@@ -1098,7 +1119,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="24" customHeight="1">
+    <row r="16" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>2</v>
       </c>
@@ -1127,7 +1148,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>3</v>
       </c>
@@ -1156,7 +1177,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>4</v>
       </c>
@@ -1185,7 +1206,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>5</v>
       </c>
@@ -1214,7 +1235,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>6</v>
       </c>
@@ -1243,7 +1264,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>7</v>
       </c>
@@ -1265,14 +1286,14 @@
       <c r="G21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>29</v>
+      <c r="H21" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="I21" s="11">
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>8</v>
       </c>
@@ -1294,14 +1315,14 @@
       <c r="G22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>29</v>
+      <c r="H22" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="I22" s="11">
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>9</v>
       </c>
@@ -1323,14 +1344,14 @@
       <c r="G23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>29</v>
+      <c r="H23" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="I23" s="11">
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="27" customHeight="1">
+    <row r="24" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>10</v>
       </c>
@@ -1352,14 +1373,14 @@
       <c r="G24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>29</v>
+      <c r="H24" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="I24" s="11">
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="26.25" customHeight="1">
+    <row r="25" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>11</v>
       </c>
@@ -1388,7 +1409,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="30">
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>12</v>
       </c>
@@ -1417,7 +1438,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>13</v>
       </c>
@@ -1446,7 +1467,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30">
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>14</v>
       </c>
@@ -1475,7 +1496,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30">
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>15</v>
       </c>
@@ -1497,14 +1518,14 @@
       <c r="G29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>29</v>
+      <c r="H29" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="I29" s="11">
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30">
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>16</v>
       </c>
@@ -1526,14 +1547,14 @@
       <c r="G30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>29</v>
+      <c r="H30" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="I30" s="11">
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30">
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>17</v>
       </c>
@@ -1555,14 +1576,14 @@
       <c r="G31" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="12" t="s">
-        <v>39</v>
+      <c r="H31" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="I31" s="11">
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>18</v>
       </c>
@@ -1584,14 +1605,14 @@
       <c r="G32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="12" t="s">
-        <v>39</v>
+      <c r="H32" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="I32" s="11">
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="30">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>19</v>
       </c>
@@ -1613,14 +1634,14 @@
       <c r="G33" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="12" t="s">
-        <v>29</v>
+      <c r="H33" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="I33" s="11">
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>20</v>
       </c>
@@ -1642,14 +1663,14 @@
       <c r="G34" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="12" t="s">
-        <v>29</v>
+      <c r="H34" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="I34" s="11">
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>21</v>
       </c>
@@ -1678,7 +1699,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="30">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>22</v>
       </c>
@@ -1707,7 +1728,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>23</v>
       </c>
@@ -1736,7 +1757,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="30">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>24</v>
       </c>
@@ -1765,7 +1786,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="30">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>25</v>
       </c>
@@ -1792,7 +1813,7 @@
       </c>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="1:9" ht="30">
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>26</v>
       </c>
@@ -1819,7 +1840,7 @@
       </c>
       <c r="I40" s="11"/>
     </row>
-    <row r="41" spans="1:9" ht="45">
+    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>27</v>
       </c>
@@ -1846,7 +1867,7 @@
       </c>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="1:9" ht="45">
+    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>28</v>
       </c>
@@ -1873,7 +1894,7 @@
       </c>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>29</v>
       </c>
@@ -1900,7 +1921,7 @@
       </c>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="1:9" ht="30">
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>30</v>
       </c>
@@ -1927,7 +1948,7 @@
       </c>
       <c r="I44" s="11"/>
     </row>
-    <row r="45" spans="1:9" ht="26.25" customHeight="1">
+    <row r="45" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>31</v>
       </c>
@@ -1954,7 +1975,7 @@
       </c>
       <c r="I45" s="11"/>
     </row>
-    <row r="46" spans="1:9" ht="30">
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>32</v>
       </c>
@@ -1981,7 +2002,7 @@
       </c>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="1:9" ht="30">
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>33</v>
       </c>
@@ -2008,7 +2029,7 @@
       </c>
       <c r="I47" s="11"/>
     </row>
-    <row r="48" spans="1:9" ht="30">
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>34</v>
       </c>
@@ -2035,7 +2056,7 @@
       </c>
       <c r="I48" s="11"/>
     </row>
-    <row r="49" spans="1:9" ht="30">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>35</v>
       </c>
@@ -2064,7 +2085,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="30">
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>36</v>
       </c>
@@ -2093,7 +2114,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="30">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>37</v>
       </c>
@@ -2122,7 +2143,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="30">
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>38</v>
       </c>
@@ -2151,7 +2172,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24" customHeight="1">
+    <row r="53" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>39</v>
       </c>
@@ -2180,7 +2201,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="30" customHeight="1">
+    <row r="54" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>40</v>
       </c>
@@ -2209,7 +2230,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="30">
+    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>41</v>
       </c>
@@ -2238,7 +2259,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="30">
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>42</v>
       </c>
@@ -2267,7 +2288,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="28.5" customHeight="1">
+    <row r="57" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>43</v>
       </c>
@@ -2296,7 +2317,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="30">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>44</v>
       </c>
@@ -2325,7 +2346,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="30">
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>45</v>
       </c>
@@ -2354,7 +2375,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="30">
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>46</v>
       </c>
@@ -2383,7 +2404,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="30">
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>47</v>
       </c>
@@ -2412,7 +2433,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="30">
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>48</v>
       </c>
@@ -2441,7 +2462,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="16" customFormat="1" ht="18.75">
+    <row r="65" spans="1:9" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
         <v>3</v>
       </c>
@@ -2450,13 +2471,13 @@
       </c>
       <c r="I65" s="25"/>
     </row>
-    <row r="66" spans="1:9" ht="12.95" customHeight="1">
+    <row r="66" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H66" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I66" s="26"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>16</v>
       </c>
@@ -2469,7 +2490,7 @@
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>14</v>
       </c>
@@ -2497,12 +2518,12 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="65" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="45" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2512,7 +2533,7 @@
       <selection activeCell="C45" sqref="C1:C65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="36.140625" style="3" customWidth="1"/>
@@ -2525,7 +2546,7 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2534,7 +2555,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75">
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -2547,8 +2568,8 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1"/>
-    <row r="4" spans="1:13" ht="30">
+    <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
@@ -2561,7 +2582,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:13" ht="6.75" customHeight="1">
+    <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2572,7 +2593,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="25.5">
+    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
@@ -2585,7 +2606,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:13" ht="8.85" customHeight="1">
+    <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2596,7 +2617,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>65</v>
       </c>
@@ -2609,7 +2630,7 @@
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
     </row>
-    <row r="9" spans="1:13" ht="11.65" customHeight="1">
+    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2620,7 +2641,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75">
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>66</v>
       </c>
@@ -2633,7 +2654,7 @@
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75">
+    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="27" t="s">
         <v>67</v>
@@ -2646,7 +2667,7 @@
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75">
+    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2657,7 +2678,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:13" ht="81" customHeight="1">
+    <row r="13" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
@@ -2686,7 +2707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1</v>
       </c>
@@ -2715,7 +2736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="24.75" customHeight="1">
+    <row r="15" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>1</v>
       </c>
@@ -2742,7 +2763,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="24" customHeight="1">
+    <row r="16" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>2</v>
       </c>
@@ -2769,7 +2790,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1">
+    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>3</v>
       </c>
@@ -2796,7 +2817,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30.75" customHeight="1">
+    <row r="18" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>4</v>
       </c>
@@ -2823,7 +2844,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>5</v>
       </c>
@@ -2850,7 +2871,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>6</v>
       </c>
@@ -2877,7 +2898,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>7</v>
       </c>
@@ -2904,7 +2925,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>8</v>
       </c>
@@ -2931,7 +2952,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>9</v>
       </c>
@@ -2958,7 +2979,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30">
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>10</v>
       </c>
@@ -2985,7 +3006,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>11</v>
       </c>
@@ -3012,7 +3033,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27" customHeight="1">
+    <row r="26" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>12</v>
       </c>
@@ -3039,7 +3060,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="29.25" customHeight="1">
+    <row r="27" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>13</v>
       </c>
@@ -3066,7 +3087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30">
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>14</v>
       </c>
@@ -3093,7 +3114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30">
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>15</v>
       </c>
@@ -3120,7 +3141,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30">
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>16</v>
       </c>
@@ -3147,7 +3168,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30">
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>17</v>
       </c>
@@ -3174,7 +3195,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>18</v>
       </c>
@@ -3201,7 +3222,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="30">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>19</v>
       </c>
@@ -3228,7 +3249,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>20</v>
       </c>
@@ -3255,7 +3276,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>21</v>
       </c>
@@ -3282,7 +3303,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="30">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>22</v>
       </c>
@@ -3309,7 +3330,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>23</v>
       </c>
@@ -3336,7 +3357,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="30">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>24</v>
       </c>
@@ -3363,7 +3384,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="30">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>25</v>
       </c>
@@ -3390,7 +3411,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="30">
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>26</v>
       </c>
@@ -3417,7 +3438,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>27</v>
       </c>
@@ -3442,7 +3463,7 @@
       </c>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="1:9" ht="30">
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>28</v>
       </c>
@@ -3467,7 +3488,7 @@
       </c>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="1:9" ht="30">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>29</v>
       </c>
@@ -3492,7 +3513,7 @@
       </c>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="1:9" ht="30">
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>30</v>
       </c>
@@ -3517,7 +3538,7 @@
       </c>
       <c r="I44" s="11"/>
     </row>
-    <row r="45" spans="1:9" ht="30" customHeight="1">
+    <row r="45" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>31</v>
       </c>
@@ -3542,7 +3563,7 @@
       </c>
       <c r="I45" s="11"/>
     </row>
-    <row r="46" spans="1:9" ht="30">
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>32</v>
       </c>
@@ -3567,7 +3588,7 @@
       </c>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="1:9" ht="26.25" customHeight="1">
+    <row r="47" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>33</v>
       </c>
@@ -3592,7 +3613,7 @@
       </c>
       <c r="I47" s="11"/>
     </row>
-    <row r="48" spans="1:9" ht="30">
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>34</v>
       </c>
@@ -3617,7 +3638,7 @@
       </c>
       <c r="I48" s="11"/>
     </row>
-    <row r="49" spans="1:9" ht="30">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>35</v>
       </c>
@@ -3642,7 +3663,7 @@
       </c>
       <c r="I49" s="11"/>
     </row>
-    <row r="50" spans="1:9" ht="30">
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>36</v>
       </c>
@@ -3667,7 +3688,7 @@
       </c>
       <c r="I50" s="11"/>
     </row>
-    <row r="51" spans="1:9" ht="30">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>37</v>
       </c>
@@ -3694,7 +3715,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="30">
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>38</v>
       </c>
@@ -3721,7 +3742,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="30">
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>39</v>
       </c>
@@ -3748,7 +3769,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="30">
+    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>40</v>
       </c>
@@ -3775,7 +3796,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>41</v>
       </c>
@@ -3802,7 +3823,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>42</v>
       </c>
@@ -3829,7 +3850,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="30">
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>43</v>
       </c>
@@ -3856,7 +3877,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="30">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>44</v>
       </c>
@@ -3883,7 +3904,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="28.5" customHeight="1">
+    <row r="59" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>45</v>
       </c>
@@ -3910,7 +3931,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="30">
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>46</v>
       </c>
@@ -3937,7 +3958,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="30">
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>47</v>
       </c>
@@ -3964,7 +3985,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="30">
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>48</v>
       </c>
@@ -3991,7 +4012,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="30">
+    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>49</v>
       </c>
@@ -4018,7 +4039,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="30">
+    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>50</v>
       </c>
@@ -4045,7 +4066,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="16" customFormat="1" ht="18.75">
+    <row r="67" spans="1:9" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
         <v>3</v>
       </c>
@@ -4054,13 +4075,13 @@
       </c>
       <c r="I67" s="25"/>
     </row>
-    <row r="68" spans="1:9" ht="12.95" customHeight="1">
+    <row r="68" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H68" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I68" s="26"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>16</v>
       </c>
@@ -4073,7 +4094,7 @@
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>14</v>
       </c>
@@ -4088,19 +4109,19 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A8:I8"/>
     <mergeCell ref="H67:I67"/>
     <mergeCell ref="H68:I68"/>
     <mergeCell ref="A70:I70"/>
     <mergeCell ref="A71:I71"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:I8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="65" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="44" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Облік і оподатківання_ВІДОМІСТЬ ДОРУЧЕНЬ - 2020.xlsx
+++ b/data/Облік і оподатківання_ВІДОМІСТЬ ДОРУЧЕНЬ - 2020.xlsx
@@ -11,15 +11,15 @@
     <sheet name="Лист1 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Лист1 (2)'!$A$1:$I$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$J$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Лист1 (2)'!$A$1:$J$71</definedName>
   </definedNames>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="81">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Податкова система</t>
   </si>
   <si>
-    <t>Помулєва Валентина Миколіївна</t>
-  </si>
-  <si>
     <t>Облік у галузях економіки</t>
   </si>
   <si>
@@ -131,16 +128,10 @@
     <t>Облік і звітність в оподаткуванні</t>
   </si>
   <si>
-    <t>ауд. 280; 275</t>
-  </si>
-  <si>
     <t>ФЕУ-616; ФЕУ-627 сп</t>
   </si>
   <si>
     <t>Управлінський облік</t>
-  </si>
-  <si>
-    <t>Лищенко ОленаГерманівна</t>
   </si>
   <si>
     <t>Облік зовнішньоекономічної діяльності</t>
@@ -476,7 +467,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,6 +477,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -561,6 +558,34 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -588,17 +613,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -870,7 +895,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -881,10 +906,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,48 +920,50 @@
     <col min="4" max="4" width="13.7109375" style="3" customWidth="1"/>
     <col min="5" max="6" width="17" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="8" max="9" width="24.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="20" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+    </row>
+    <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -946,21 +973,23 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -969,22 +998,24 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="19"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+    </row>
+    <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -993,35 +1024,38 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="I9" s="19"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1030,9 +1064,10 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="20"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
@@ -1060,8 +1095,11 @@
       <c r="I13" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J13" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1</v>
       </c>
@@ -1089,8 +1127,11 @@
       <c r="I14" s="10">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>1</v>
       </c>
@@ -1098,7 +1139,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>19</v>
@@ -1115,11 +1156,12 @@
       <c r="H15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="13">
+        <v>232</v>
+      </c>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>2</v>
       </c>
@@ -1127,7 +1169,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>22</v>
@@ -1144,11 +1186,12 @@
       <c r="H16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I16" s="13">
+        <v>232</v>
+      </c>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>3</v>
       </c>
@@ -1173,11 +1216,12 @@
       <c r="H17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I17" s="13">
+        <v>232</v>
+      </c>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>4</v>
       </c>
@@ -1202,11 +1246,12 @@
       <c r="H18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I18" s="13">
+        <v>232</v>
+      </c>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>5</v>
       </c>
@@ -1231,11 +1276,12 @@
       <c r="H19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I19" s="13">
+        <v>232</v>
+      </c>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>6</v>
       </c>
@@ -1260,11 +1306,12 @@
       <c r="H20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I20" s="13">
+        <v>232</v>
+      </c>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>7</v>
       </c>
@@ -1286,14 +1333,15 @@
       <c r="G21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H21" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="13">
+        <v>232</v>
+      </c>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>8</v>
       </c>
@@ -1315,19 +1363,20 @@
       <c r="G22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H22" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="13">
+        <v>232</v>
+      </c>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>9</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>24</v>
@@ -1344,19 +1393,20 @@
       <c r="G23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="13">
+        <v>232</v>
+      </c>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>10</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>24</v>
@@ -1373,19 +1423,20 @@
       <c r="G24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="13">
+        <v>232</v>
+      </c>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>11</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>24</v>
@@ -1403,18 +1454,19 @@
         <v>25</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="27"/>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>12</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>24</v>
@@ -1432,18 +1484,19 @@
         <v>25</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="27"/>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>13</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>24</v>
@@ -1461,18 +1514,19 @@
         <v>25</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="I27" s="13">
+        <v>232</v>
+      </c>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>14</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>24</v>
@@ -1490,22 +1544,23 @@
         <v>25</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="I28" s="13">
+        <v>232</v>
+      </c>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>15</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="D29" s="11" t="s">
         <v>19</v>
       </c>
@@ -1518,23 +1573,24 @@
       <c r="G29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H29" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="13">
+        <v>232</v>
+      </c>
+      <c r="J29" s="26"/>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>16</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="D30" s="11" t="s">
         <v>22</v>
       </c>
@@ -1547,22 +1603,23 @@
       <c r="G30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I30" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H30" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="13">
+        <v>232</v>
+      </c>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>17</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>19</v>
@@ -1576,22 +1633,23 @@
       <c r="G31" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="I31" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H31" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="13">
+        <v>232</v>
+      </c>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>18</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>22</v>
@@ -1605,22 +1663,23 @@
       <c r="G32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="I32" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H32" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="13">
+        <v>232</v>
+      </c>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>19</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>19</v>
@@ -1634,22 +1693,23 @@
       <c r="G33" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I33" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H33" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="13">
+        <v>232</v>
+      </c>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>20</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>22</v>
@@ -1663,22 +1723,23 @@
       <c r="G34" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I34" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H34" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="13">
+        <v>232</v>
+      </c>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>21</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>19</v>
@@ -1693,21 +1754,22 @@
         <v>25</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="I35" s="13">
+        <v>232</v>
+      </c>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>22</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>22</v>
@@ -1722,21 +1784,22 @@
         <v>25</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I36" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="I36" s="13">
+        <v>232</v>
+      </c>
+      <c r="J36" s="26"/>
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>23</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>19</v>
@@ -1751,24 +1814,25 @@
         <v>21</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J37" s="27"/>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>24</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E38" s="11">
         <v>32</v>
@@ -1780,13 +1844,14 @@
         <v>21</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="27"/>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>25</v>
       </c>
@@ -1794,7 +1859,7 @@
         <v>18</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>19</v>
@@ -1811,9 +1876,10 @@
       <c r="H39" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I39" s="13"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>26</v>
       </c>
@@ -1821,7 +1887,7 @@
         <v>18</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>22</v>
@@ -1838,9 +1904,10 @@
       <c r="H40" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="11"/>
-    </row>
-    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I40" s="13"/>
+      <c r="J40" s="26"/>
+    </row>
+    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>27</v>
       </c>
@@ -1848,7 +1915,7 @@
         <v>18</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>19</v>
@@ -1865,9 +1932,10 @@
       <c r="H41" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I41" s="13"/>
+      <c r="J41" s="26"/>
+    </row>
+    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>28</v>
       </c>
@@ -1875,7 +1943,7 @@
         <v>18</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>22</v>
@@ -1892,17 +1960,18 @@
       <c r="H42" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="13"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>29</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>19</v>
@@ -1917,19 +1986,20 @@
         <v>25</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>30</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>22</v>
@@ -1944,19 +2014,20 @@
         <v>25</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44" s="11"/>
-    </row>
-    <row r="45" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="26"/>
+    </row>
+    <row r="45" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>31</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>19</v>
@@ -1973,20 +2044,21 @@
       <c r="H45" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="11"/>
-    </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I45" s="13"/>
+      <c r="J45" s="26"/>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>32</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E46" s="11">
         <v>14</v>
@@ -2000,9 +2072,10 @@
       <c r="H46" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="11"/>
-    </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I46" s="13"/>
+      <c r="J46" s="26"/>
+    </row>
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>33</v>
       </c>
@@ -2010,7 +2083,7 @@
         <v>18</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>19</v>
@@ -2025,11 +2098,12 @@
         <v>21</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I47" s="11"/>
-    </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="I47" s="13"/>
+      <c r="J47" s="26"/>
+    </row>
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>34</v>
       </c>
@@ -2037,7 +2111,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>22</v>
@@ -2052,19 +2126,20 @@
         <v>21</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I48" s="11"/>
-    </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="26"/>
+    </row>
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>35</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>19</v>
@@ -2079,21 +2154,22 @@
         <v>25</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I49" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="I49" s="13">
+        <v>232</v>
+      </c>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>36</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>22</v>
@@ -2108,21 +2184,22 @@
         <v>25</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I50" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="I50" s="13">
+        <v>232</v>
+      </c>
+      <c r="J50" s="26"/>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>37</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>19</v>
@@ -2139,19 +2216,20 @@
       <c r="H51" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I51" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I51" s="13">
+        <v>232</v>
+      </c>
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>38</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>22</v>
@@ -2168,19 +2246,20 @@
       <c r="H52" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I52" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="13">
+        <v>232</v>
+      </c>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>39</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>19</v>
@@ -2197,19 +2276,20 @@
       <c r="H53" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I53" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="13">
+        <v>232</v>
+      </c>
+      <c r="J53" s="26"/>
+    </row>
+    <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>40</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>22</v>
@@ -2226,19 +2306,20 @@
       <c r="H54" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I54" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I54" s="13">
+        <v>232</v>
+      </c>
+      <c r="J54" s="26"/>
+    </row>
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>41</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>19</v>
@@ -2253,21 +2334,22 @@
         <v>21</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I55" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="I55" s="13">
+        <v>232</v>
+      </c>
+      <c r="J55" s="26"/>
+    </row>
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>42</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>22</v>
@@ -2282,21 +2364,22 @@
         <v>21</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I56" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="I56" s="13">
+        <v>232</v>
+      </c>
+      <c r="J56" s="26"/>
+    </row>
+    <row r="57" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>43</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>19</v>
@@ -2311,21 +2394,22 @@
         <v>21</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I57" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="I57" s="13">
+        <v>232</v>
+      </c>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>44</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>22</v>
@@ -2340,21 +2424,22 @@
         <v>21</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I58" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="I58" s="13">
+        <v>232</v>
+      </c>
+      <c r="J58" s="26"/>
+    </row>
+    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>45</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>19</v>
@@ -2369,24 +2454,25 @@
         <v>25</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I59" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J59" s="27"/>
+    </row>
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>46</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E60" s="11">
         <v>30</v>
@@ -2398,21 +2484,22 @@
         <v>25</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I60" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J60" s="27"/>
+    </row>
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>47</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>19</v>
@@ -2427,21 +2514,22 @@
         <v>25</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I61" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="I61" s="13">
+        <v>232</v>
+      </c>
+      <c r="J61" s="26"/>
+    </row>
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>48</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>22</v>
@@ -2456,69 +2544,74 @@
         <v>25</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I62" s="11">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="I62" s="13">
+        <v>232</v>
+      </c>
+      <c r="J62" s="26"/>
+    </row>
+    <row r="65" spans="1:10" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H65" s="25" t="s">
+      <c r="H65" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I65" s="25"/>
-    </row>
-    <row r="66" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H66" s="26" t="s">
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+    </row>
+    <row r="66" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I66" s="26"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="A68:J68"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="45" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="44" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2527,10 +2620,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C1:C65536"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2541,48 +2634,50 @@
     <col min="4" max="4" width="13.7109375" style="3" customWidth="1"/>
     <col min="5" max="6" width="17" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="8" max="9" width="24.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="20" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+    </row>
+    <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2592,21 +2687,23 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2615,22 +2712,24 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="22"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2639,35 +2738,38 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="I9" s="22"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2676,9 +2778,10 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="23"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
@@ -2706,8 +2809,11 @@
       <c r="I13" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J13" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1</v>
       </c>
@@ -2735,8 +2841,11 @@
       <c r="I14" s="10">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>1</v>
       </c>
@@ -2744,7 +2853,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>19</v>
@@ -2762,8 +2871,9 @@
       <c r="I15" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>2</v>
       </c>
@@ -2771,7 +2881,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>22</v>
@@ -2789,16 +2899,17 @@
       <c r="I16" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>3</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>22</v>
@@ -2811,21 +2922,22 @@
         <v>25</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I17" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>4</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>22</v>
@@ -2838,13 +2950,14 @@
         <v>25</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I18" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>5</v>
       </c>
@@ -2852,7 +2965,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>19</v>
@@ -2870,8 +2983,9 @@
       <c r="I19" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>6</v>
       </c>
@@ -2879,7 +2993,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>22</v>
@@ -2897,8 +3011,9 @@
       <c r="I20" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>7</v>
       </c>
@@ -2906,7 +3021,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>19</v>
@@ -2924,8 +3039,9 @@
       <c r="I21" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>8</v>
       </c>
@@ -2933,7 +3049,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>22</v>
@@ -2951,8 +3067,9 @@
       <c r="I22" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>9</v>
       </c>
@@ -2960,7 +3077,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>19</v>
@@ -2972,14 +3089,15 @@
       <c r="G23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>29</v>
+      <c r="H23" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="I23" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>10</v>
       </c>
@@ -2987,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>22</v>
@@ -2999,22 +3117,23 @@
       <c r="G24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>29</v>
+      <c r="H24" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="I24" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>11</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>19</v>
@@ -3026,22 +3145,23 @@
       <c r="G25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>29</v>
+      <c r="H25" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="I25" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>12</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>22</v>
@@ -3053,22 +3173,23 @@
       <c r="G26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>29</v>
+      <c r="H26" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="I26" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="26"/>
+    </row>
+    <row r="27" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>13</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>19</v>
@@ -3081,21 +3202,22 @@
         <v>25</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="40"/>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>14</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>22</v>
@@ -3108,21 +3230,22 @@
         <v>25</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="40"/>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>15</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>19</v>
@@ -3135,21 +3258,22 @@
         <v>25</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I29" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J29" s="26"/>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>16</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>22</v>
@@ -3162,21 +3286,22 @@
         <v>25</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I30" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J30" s="26"/>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>17</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>19</v>
@@ -3188,22 +3313,23 @@
       <c r="G31" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="12" t="s">
-        <v>29</v>
+      <c r="H31" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="I31" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J31" s="26"/>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>18</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>22</v>
@@ -3215,22 +3341,23 @@
       <c r="G32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="12" t="s">
-        <v>29</v>
+      <c r="H32" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="I32" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J32" s="26"/>
+    </row>
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>19</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>19</v>
@@ -3242,22 +3369,23 @@
       <c r="G33" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="12" t="s">
-        <v>39</v>
+      <c r="H33" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="I33" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>20</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>22</v>
@@ -3269,22 +3397,23 @@
       <c r="G34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="12" t="s">
-        <v>39</v>
+      <c r="H34" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="I34" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>21</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>19</v>
@@ -3296,22 +3425,23 @@
       <c r="G35" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="12" t="s">
-        <v>29</v>
+      <c r="H35" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="I35" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>22</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>22</v>
@@ -3323,22 +3453,23 @@
       <c r="G36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="12" t="s">
-        <v>29</v>
+      <c r="H36" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="I36" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J36" s="26"/>
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>23</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>19</v>
@@ -3351,21 +3482,22 @@
         <v>25</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I37" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J37" s="26"/>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>24</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>22</v>
@@ -3378,21 +3510,22 @@
         <v>25</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I38" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J38" s="26"/>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>25</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>19</v>
@@ -3405,24 +3538,25 @@
         <v>21</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="J39" s="27"/>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>26</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E40" s="11">
         <v>8</v>
@@ -3432,13 +3566,14 @@
         <v>21</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="J40" s="27"/>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>27</v>
       </c>
@@ -3446,7 +3581,7 @@
         <v>18</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>19</v>
@@ -3462,8 +3597,9 @@
         <v>20</v>
       </c>
       <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J41" s="26"/>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>28</v>
       </c>
@@ -3471,7 +3607,7 @@
         <v>18</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>22</v>
@@ -3487,8 +3623,9 @@
         <v>20</v>
       </c>
       <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>29</v>
       </c>
@@ -3496,7 +3633,7 @@
         <v>18</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>19</v>
@@ -3512,8 +3649,9 @@
         <v>20</v>
       </c>
       <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J43" s="26"/>
+    </row>
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>30</v>
       </c>
@@ -3521,7 +3659,7 @@
         <v>18</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>22</v>
@@ -3537,16 +3675,17 @@
         <v>20</v>
       </c>
       <c r="I44" s="11"/>
-    </row>
-    <row r="45" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="26"/>
+    </row>
+    <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>31</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>19</v>
@@ -3559,19 +3698,20 @@
         <v>25</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I45" s="11"/>
-    </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J45" s="26"/>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>32</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>22</v>
@@ -3584,19 +3724,20 @@
         <v>25</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I46" s="11"/>
-    </row>
-    <row r="47" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="26"/>
+    </row>
+    <row r="47" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>33</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>19</v>
@@ -3612,19 +3753,20 @@
         <v>26</v>
       </c>
       <c r="I47" s="11"/>
-    </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J47" s="26"/>
+    </row>
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>34</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E48" s="11">
         <v>2</v>
@@ -3637,8 +3779,9 @@
         <v>26</v>
       </c>
       <c r="I48" s="11"/>
-    </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J48" s="26"/>
+    </row>
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>35</v>
       </c>
@@ -3646,7 +3789,7 @@
         <v>18</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>19</v>
@@ -3659,11 +3802,12 @@
         <v>21</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I49" s="11"/>
-    </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J49" s="26"/>
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>36</v>
       </c>
@@ -3671,7 +3815,7 @@
         <v>18</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>22</v>
@@ -3684,19 +3828,20 @@
         <v>21</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I50" s="11"/>
-    </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J50" s="26"/>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>37</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>19</v>
@@ -3709,21 +3854,22 @@
         <v>25</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I51" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J51" s="26"/>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>38</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>22</v>
@@ -3736,21 +3882,22 @@
         <v>25</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I52" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>39</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>19</v>
@@ -3768,16 +3915,17 @@
       <c r="I53" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J53" s="26"/>
+    </row>
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>40</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>22</v>
@@ -3795,16 +3943,17 @@
       <c r="I54" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="26"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>41</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>19</v>
@@ -3822,16 +3971,17 @@
       <c r="I55" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="26"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>42</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>22</v>
@@ -3849,16 +3999,17 @@
       <c r="I56" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J56" s="26"/>
+    </row>
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>43</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>19</v>
@@ -3871,21 +4022,22 @@
         <v>21</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I57" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>44</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>22</v>
@@ -3898,21 +4050,22 @@
         <v>21</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I58" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="26"/>
+    </row>
+    <row r="59" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>45</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>19</v>
@@ -3925,21 +4078,22 @@
         <v>21</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I59" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J59" s="26"/>
+    </row>
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>46</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>22</v>
@@ -3952,21 +4106,22 @@
         <v>21</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I60" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J60" s="26"/>
+    </row>
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>47</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>19</v>
@@ -3979,24 +4134,25 @@
         <v>25</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="J61" s="26"/>
+    </row>
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>48</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E62" s="11">
         <v>6</v>
@@ -4006,21 +4162,22 @@
         <v>25</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="J62" s="26"/>
+    </row>
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>49</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>19</v>
@@ -4033,21 +4190,22 @@
         <v>25</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I63" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J63" s="26"/>
+    </row>
+    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>50</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>22</v>
@@ -4060,65 +4218,70 @@
         <v>25</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I64" s="11">
         <v>232</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J64" s="26"/>
+    </row>
+    <row r="67" spans="1:10" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H67" s="25" t="s">
+      <c r="H67" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I67" s="25"/>
-    </row>
-    <row r="68" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H68" s="26" t="s">
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+    </row>
+    <row r="68" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I68" s="26"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="A71:I71"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="H67:J67"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/data/Облік і оподатківання_ВІДОМІСТЬ ДОРУЧЕНЬ - 2020.xlsx
+++ b/data/Облік і оподатківання_ВІДОМІСТЬ ДОРУЧЕНЬ - 2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12375"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="82">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Лищенко Олена Германівна</t>
+  </si>
+  <si>
+    <t>Пропозиції щодо аудиторій</t>
   </si>
 </sst>
 </file>
@@ -586,6 +589,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -613,17 +619,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -895,7 +898,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -908,8 +911,8 @@
   </sheetPr>
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,33 +938,33 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -976,18 +979,18 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -1002,18 +1005,18 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -1028,32 +1031,32 @@
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -1093,7 +1096,7 @@
         <v>15</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="J13" s="24" t="s">
         <v>13</v>
@@ -2555,46 +2558,46 @@
       <c r="A65" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H65" s="35" t="s">
+      <c r="H65" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
     </row>
     <row r="66" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H66" s="36" t="s">
+      <c r="H66" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2622,8 +2625,8 @@
   </sheetPr>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2649,33 +2652,33 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -2690,18 +2693,18 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -2716,18 +2719,18 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -2807,7 +2810,7 @@
         <v>15</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="J13" s="24" t="s">
         <v>13</v>
@@ -3207,7 +3210,7 @@
       <c r="I27" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="40"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
@@ -3235,7 +3238,7 @@
       <c r="I28" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="40"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
@@ -4229,59 +4232,59 @@
       <c r="A67" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H67" s="35" t="s">
+      <c r="H67" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
     </row>
     <row r="68" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H68" s="36" t="s">
+      <c r="H68" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="H67:J67"/>
     <mergeCell ref="H68:J68"/>
     <mergeCell ref="A70:J70"/>
     <mergeCell ref="A71:J71"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="B11:J11"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="H67:J67"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
